--- a/data/hotels_by_city/Dallas/Dallas_shard_352.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_352.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ginger7500</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Went to Lewisville with my husband for business.  The hotel staff were all very friendly.  We loved the breakfast lady.  She was so accomadating and made sure we had everything we needed.  Very deserving of a good tip! The breakfast was very good for a free breakfast.  Bacon, cheese omlets, egg white omlets, sausage, biscuits and gravy.  There is also a pancake machine which I haven't seen before.  It makes 2 pancakes at a time.  Fresh fruit to go.  The front desk personel were also always smiling and very pleasant.  The hotel was very clean.  The only drawback was we could hear people walking or running in rooms or hallways above us.  There must have been complaints because the next day there was a sign in the elevator asking people to be quiet after 10:00pm.  I might add it was spring break.More</t>
   </si>
   <si>
+    <t>Jim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r558003917-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>The hotel was very clean.  The staff was super friendly, especially the afternoon desk attendant(?) Cindy.  I checked out today to fly home and will return again on Sunday.  They stored a box of my supplies for me until I return!  The complimentary breakfast was very expansive and offered quality choices.  The location of this hotel was close to many awesome restaurants.  The room was fantastic, especially for the price.More</t>
   </si>
   <si>
+    <t>永進 李</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r550171706-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>I have been stayed this holiday inn express for about 5 years ago. I loved this place. The location not only close to my workplace but also near many attracting place like costco warehouse and many restaurants. I remember it is a new hotel and the rooms were renovated recently. It is spacious and it is comfortable. The best part is the breakfast. there is a brand new buffet area offers wide range of fresh food and drinks especially the great pen cake machine. it offer you full energy of the day.  Although some housekeeping service break in my room but it was taken care by manager. I was overall satisfied.More</t>
   </si>
   <si>
+    <t>dlblackwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r549337211-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>We stayed at this hotel for a youth sports tournament. The room was VERY spacious - even with two queen beds. Could have used another chair or a couch, but it was okay.  The room was clean and beds okay. Not luxurious, but solidly adequate for an affordable family trip. The sink/mirror was on a separate wall from the bath/stool which is handy when you have three people trying to get ready in the morning.  The free breakfast was pretty good, decent options. I thought the team of teen boys would empty the food options quickly, but they had a lovely lady watching the area and keeping the food replenished. She also greeted everyone who came in with a smile and good morning. Very nice. She gets 5 stars.More</t>
   </si>
   <si>
+    <t>SafetyDave1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r545803420-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>I stayed at this property for two nights on a business trip.  The hotel is located near I-35E and the Sam Rayburn Tollway, but far enough away from both that road noise is not a problem.  Vista Ridge Mall Drive is full of midrise hotels and apartment complexes.  Restaurants and shopping of all kinds can be found nearby.  The hotel itself is very clean and comfortable.  Sound separation (a real tripwire for me) is very good.  I heard almost no noise of any kind, and I stayed next to the elevator.  The bedding was very comfortable.  I liked the bathroom sink area, and also the fact that the coffee maker and room refrigerator were up by the room door, and not in the bedroom area.  I recommend this hotel, and would like to stay in it again.More</t>
   </si>
   <si>
+    <t>MichaelFM76262</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r492540093-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>James w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r484754309-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>theM0thership</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r484500809-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>We were in town for a soccer tournament.  The room was very spacious - plenty of room between the ends of the bed and the opposite wall.  Lots of USB ports and outlets and great lighting.  Bed was really comfortable. The rooms and lobby appear to be recently remodeled.  Breakfast starts at 6am even on weekends so even though we had a 7am game we could  still grab a bite.  Staff was really friendly.  We'll definitely stay here again.</t>
   </si>
   <si>
+    <t>BishopNewt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r464640857-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r462417529-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>nexlevelife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r459432157-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>This place was a great place to stay and was around many different places to eat and highway. Was easy to find and the staff is wonderfully nice. This place is remodeled and rooms are remodeled modern. Breakfast is good enough to hold ya for a while. Well worth the cost to stay...</t>
   </si>
   <si>
+    <t>Joe W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r457937299-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Our Truck was broke into and we suffered a large theft loss of items. The night clerk did not warm me that they have had a theft problem in the rear parking lot. The front lot was full so she advised me to park in rear and use back door.  When I got up the next morning, someone had broke the glass out of my new truck and stole lots of our stuff.  When I reported the loss, the morning clerk said they have had a theft problem in the rear parking lot.  Why did the night clerk not warn me of this issue, because I would have avoided this issue.  Very disappointed.More</t>
   </si>
   <si>
+    <t>WillyA123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r456497543-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>Very nice hotel.  Quiet too.  Lot's of eating possibilities close by.  Of course breakfast is standard at the Holiday Inn Express and consistent quality.  I always try to stay in Holiday Inn Express when travelling.  Room was great and renovated.  Clean and quiet.</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r455715429-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>Stayed for two nights in Jan. 2017 (business trip).The hotel was a standard Holiday Inn and lived up to the usual good quality of the Holiday Inn chain.The room was spacious, clean and well maintained.The staff were friendly and helpful.The breakfast was the usual offering of cereals, fruit, yogurt, pancakes, etc. and the hot dishes were the usual egg, sausage and being Texas, biscuits :-). All in all, a pleasure to stay there.</t>
   </si>
   <si>
+    <t>beefdoctor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r426496142-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
     <t>Be aware that this is a difficult property to find and get to due to massive construction in the area right now and there are no signs for this hotel out on the freeway exit. The hotel itself is under construction/renovation so it is noisy, messy and a bit of a pain. We stayed on the renovated 3rd floor and our room (a king) was very large and very nice and very clean.One issue I encountered that really frosted my biscuit was the front desk demand for a $100 deposit for "incidentals". I pressed the issue as to what she meant by incidentals since there was no restaurant, room service, bar or other place we might charge something. She said "in case you break something or smoke in the room"!! Give me a break. I am a Spire Elite member and stay almost exclusively in HI properties. This is the first time I have ever encountered such a ridiculous request. I continued to object and finally won out with a warning from the clerk; "I will waive it this time but the next time you stay here you will pay the deposit." Guess what lady, there won't be a next time! There are way too many choices in the area to put up with such a disrespectful attitude and stupid policy. So, be for-warned about the construction and this idiotic policy and fight back!!More</t>
   </si>
   <si>
+    <t>CABrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r415480820-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>In 2012, when Alabama played the first game of the season at Cowby Stadium, we took the advice of a friend and stayed at this property.  Our stay went so well that in 2015 we stayed there again.  Many times as the years go by, hotels decline and they're not the same.  THIS WAS BETTER.  To begin the 2016 season, Alabama played USC.  Many thought we were crazy to stay "so far away" but, this property is well worth the drive.  It only took us about 25 minutes to drive to the stadium and we saved a considerable amount of money.  The rooms are very spacious.  The air conditioner worked great.  The pool was very inviting. The bed was very comfortable and the breakfast was good.  The highest asset that this property possesses is the staff.  Cindy, Melissa and others are professional and VERY good at what they do.  It's obvious they love their job.  Not sure when Alabama plays there again but, we'll be there...and we'll stay at this property.More</t>
   </si>
   <si>
+    <t>lloydsclea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r412772218-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t>Such a great visit to this hotel after American Airlines cancelled yet another flight stranding us in DFT.  The hotel is a mere 9 minutes from the airport and our reception was astounding with friendly serve from the manager, Gene and his awesome staff Cindy and Annie!  The rooms were spotless and the breakfast ready and delicious at 6:00 am!  Restaurants to choose from in the proximity and a fashion outlet to buy some clothes and other essentials!  The hotel is under construction though I can't image what else could be done to make it better since it was already perfect!  Thanks team for making a bummer a pleasure!  Right price, too.  Über was $18.00 to and from the airport. More</t>
   </si>
   <si>
+    <t>jpsjamdg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r397300184-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Andre V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r372251914-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Anthony R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r367856525-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>EastTNVol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r348696472-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -591,6 +654,9 @@
     <t>This was a pretty good HI Express, though the building looks a lot like it may have been another brand of hotel, previously.  The carpets in the hallway are different from any others that I've seen at HI Express hotels.  Also, the bathroom in my room had the sink &amp; mirror out in the main sleeping area, with only the shower &amp; toilet in a private room; this is definitely something to consider if you are traveling with kids or with another adult with whom you wouldn't be comfortable getting dressed, etc., while having the lavatory area together with the sleeping/sitting area.  The hotel has many restaurants and shopping areas nearby.More</t>
   </si>
   <si>
+    <t>pjhinton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r345958473-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -618,6 +684,9 @@
     <t>The bathroom was nice and big, with good lighting and it was clean!  However, the rest of the room was very dated, say 70s, with brown plastic furniture that was too cold to even sit on since it was the middle of winter.  The room had a lot of square footage, but not much in it except this giant tub that was in the same room that was the bedroom, which we found strange since this was a family outing, not some romantic interlude.  If this is the best that Holiday Inn Express has to offer, we will find something else the next time we are looking for a room!!  Parking spaces were extremely small and the whole parking lot was very tight.  We were afraid we would not even be able to find a place to park.More</t>
   </si>
   <si>
+    <t>catt4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r336536741-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -636,6 +705,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>LeRoy_far</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r336274410-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -663,6 +735,9 @@
     <t>Hotel was a little run down and in need of freshening up, everything worked well and the staff was friendly. Breakfast was good and the breakfast staff was very nice. This place will always hold a special place in my heart :)More</t>
   </si>
   <si>
+    <t>jeffrey c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r326779770-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -690,6 +765,9 @@
     <t>After a minor issue with my credit card, front desk attendant Cindy Wiltz took care of the problem. It was a pleasant check in. Every time I come down to this area, I always stay at this hotel. There is plenty of shopping and places to eat in the area.More</t>
   </si>
   <si>
+    <t>SandrasAgenda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r321846839-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>The hotel is very clean and well organized. The staff is friendly and helpful. The room was very well stocked with everything I needed. There are great restaurants on every corner and the mall is within walking distance. I definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>Dana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r321438326-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -738,6 +819,9 @@
     <t>Our room was clean and very modern! We had a great night's rest each night we were there! The staff was very accommodating and the breakfast was REALLY breakfast, not cold cereal and muffins! We will be back!!More</t>
   </si>
   <si>
+    <t>Stacy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r317626270-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -756,6 +840,9 @@
     <t>We stayed here for the cotton bowl 2015. The staff created us pleasantly. The rooms were clean and very quite. The bed was a comfy King. The breakfast was great! They had a lot of choices. We left at 7:15 am and had perfect parking for the game. Will stay again! More</t>
   </si>
   <si>
+    <t>Camille2777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r312534688-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -783,6 +870,9 @@
     <t>After preparing one child for college, preparing for 2 to graduate high school AND the routine of working long hours, my husband suggested that we set aside some time just for the two of us. We decided to reserve a room at Holiday Inn Express Vista Ridge Mall in Lewisville, TX. The reservation process was easy, and not only did we get a great price for our king suite w/ jacuzzi ($125/night) we were also randomly selected to participate Holiday Inn vacation promo! We initially booked a room at the Holiday Inn location on Preston, but we saved nearly $100 bucks!The room was spacious and immaculate. (I have a habit of traveling with my own cleaning supplies, but they weren't necessary during this visit.) Our room was a king suite with jacuzzi, microwave, refrigerator, free wifi, a bath with large shower head w/ adjustable settings. The jacuzzi was spotless and worked perfectly. (The hot water setting was a little too hot if you're not careful as you run the water.) The hotel also offers free breakfast daily consisting of hot and cold cereal, fresh fruit, breakfast sausage/bacon/ham, eggs, various breads (wheat/white bread, bagels, muffins), pancakes, coffee and orange juice.The hotel is located right off a I-35E walking distance to various restaurants and surrounded by an assortment of shopping centers and the Vista Ridge Mall. Overall, our stay at Holiday Inn Express Vista Ridge Mall was perfect!More</t>
   </si>
   <si>
+    <t>JennBL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r311432182-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -807,6 +897,9 @@
     <t>This Holiday Inn Express was a very nice place to stay during my recent business trip.  The staff at the front desk were very friendly and helpful.  The room was clean.  The bed was very comfortable and the pillows were so nice and comfortable as well.  There were both soft and firm pillows and it says so sewn on the pillowcase.  The shower was amazing.  It just felt so good after a long day.  There were plenty of towels in the room.  It was nice to have a small refrigerator and microwave in the room too.  The carpet could be changed but it was okay and was clean.  There was an ironing board, an iron and hangers if needed.  The sheets were white and clean.  I can't say enough of the room.  It was just so comfortable and relaxing and quiet.  The only negative thing was whoever was in the room above me sure liked to stomp around.  This hotel does offer complimentary breakfast, which was very good and had a variety of choices of both hot and cold breakfast items.  This was a very pleasant stay and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Jeffrey T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r265959806-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -831,6 +924,9 @@
     <t>We took a chance at this hotel based on price with the surrounding hotels (which were 50% more) and we were pleasantly surprised. The room was clean and the staff always smiled and welcomed at us when we returned. Breakfast was included, but I wouldn't rate it high. It was enough to get us outdoor with a quick snack though. I would easily stay here again.More</t>
   </si>
   <si>
+    <t>Willie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r264660463-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -855,6 +951,9 @@
     <t>I stayed at the Holiday Inn Express in Lewisville, TX. I was not sure if the room I booked was going to be big enough for my wife and i and my two kids. But to my surprise, the rooms were much larger than other rooms that I have stayed in at the same brand.  The staff was great, the breakfast was great. The hotel was full during our three day stay and it was quite and no noise problems with other guests. We were visiting Dallas so this Holiday Inn location is a small commute to The City of Dallas, but it is worth it! I fully recomnend this location to everyone. I will return!More</t>
   </si>
   <si>
+    <t>Xenos68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r264590317-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -876,6 +975,9 @@
     <t>I have stayed at a number of Holiday Inn Express Hotels and the room at this hotel was pretty consistent with my other experiences. Room is nice and big, cleaned on a daily basis, even when you have the lazy Sunday sleep in, the desk is good to work on and the free internet is great, better than some 5 star hotels where you have to pay per device to connect.  The one thing that set this Holiday Inn Express apart from the others is the great staff around the hotel, always friendly and happy to say hello with a smile. Two staff members did stand out Maria in the breakfast area, she kept it consistently stocked / clean and Cindy at reception who was very helpful and always cheerful. Good to see a smiling face after a long day at work.     More</t>
   </si>
   <si>
+    <t>Richard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r259810896-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1002,9 @@
     <t>Great place, very clean, room was roomy very quite beds were great ask for extra pillows got them within 15min,  front desk was very helpful, went to redneck heaven for drinks and stayed for hours! Had a blast even with wife! Lot of good restaurants within walking distance. More</t>
   </si>
   <si>
+    <t>ballparkmomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r256447251-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>Good, clean hotel.  Decent breakfast offered.  Large rooms. Good location. My only hesitancy in giving this 5 stars overall is the vanity that is separate from the bathroom.  For some people this probably works well.  Unfortunately, it prevented us from being able to wake up before the kids &amp; get ready without waking them.  Just a small thing to think about before you book.  Otherwise, it was a good value for the money.</t>
   </si>
   <si>
+    <t>MarkIreland76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r244347553-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1050,9 @@
     <t>We booked this hotel last minute and found the front desk staff very helpful.  Our room was located on the ground floor which wasn't ideal but all that was available.  There were 2 double beds, relatively comfortable, fridge, microwave and an huge desk, not sure why it was so big.  The bathroom only had a tub and toilet, the sink/vanity etc were outside the bathroom in the main room - having small children with us this was strange, had we known in advance we most probably would not have stayed. We were running late so skipped breakfast but it looked good.More</t>
   </si>
   <si>
+    <t>FLTBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r238658829-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1080,9 @@
     <t>Plusses - big rooms, a big work desk, lots of power outlets, good free wifi, USA Today delivered to the room, and the best free breakfast of anywhere.  It's not just the cinnamon rolls (which are good) but the whole buffet is well done.  And of course, the HIE shower heads... :-)Not a lot of downside to this hotel.  Walls were a bit thin - I could hear the TV in the next room.  But that's why I always travel with a white noise generator.  Bed and bath are average - nothing special.   But not a lot of wow factor either, apart from the breakfast.More</t>
   </si>
   <si>
+    <t>ChrisF7093</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r235549222-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1104,9 @@
     <t>I was pleasantly surprised by the high quality of this hotel.  I haven't stayed in a hotel of this brand for quite some time, preferring to stay in brands that I thought were more luxurious, but I had a very pleasant experience at this hotel.  First, the king executive room was very roomy, enough room so that the sofa bed wasn't directly in front of the air conditioner when opened.  The room was clean and the decor was fairly modern.  The bed was very comfortable and I enjoyed that they gave a choice of soft or firm pillows, clearly marked.  Also, the sofa bed came with a soft mattress cover, which made it more comfortable to sleep on.The location is good for basic shopping as it is also right by the mall.  It's not a huge or luxurious mall, but it's a nice little shopping area.More</t>
   </si>
   <si>
+    <t>Bryan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r221209460-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1128,9 @@
     <t>I stay at this hotel a couple of times a year for work and I have never yet been disappointed.  The beds are comfortable and they give you a choice for pillow firmness.  The breakfast isn't lavish but it covers a variety of food and starts off your day well.  The staff is friendly and helpful whenever I have needed something and the WiFi is free.  If you are looking for a good nights sleep and a nice breakfast then this hotel is for you.More</t>
   </si>
   <si>
+    <t>Andrew I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r216953232-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1158,9 @@
     <t>The hotel seem nice,  well kept , and the staff was friendly and professional.  Everything seemed fine until we slept in the bed.  Both my wife and I were eaten up in Bed Bug bites.   We only stayed one night (Thank GOD)  I would ask for my money back but we got the room free as part of a rewards program.   At least I didnt have to pay for the infestation of our clothes and luggage and being eaten alive.More</t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r209878538-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1188,9 @@
     <t>This was a very nice hotel for the last leg of our trip. We were surprised to find a fold out couch complete with bed linens stored in a zipped bag, after requesting to change to a double bed room from our king room that we had reserved. (No double rooms were available). The couch proved very convenient, since we also had our 3 year old grandson with us. He was very excited that the room was so spacious and had room for him to play on the floor. The bathroom area is very elegant with high end shampoos and lotions. The beds were very comfortable. The breakfast was excellent, and the staff was very friendly. I never expected to find this nice of a place for the money we paid. This is a great hotel!More</t>
   </si>
   <si>
+    <t>JCM1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r207580772-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1212,9 @@
     <t>I was there for a 3 day stay and elevator was out of order the whole time. the breakfast was under cooked everyday....but the room was clean and Bryan at front desk gave good customer service. I would call prior to stay to make sure elevator is working.More</t>
   </si>
   <si>
+    <t>TNroadwarrior54321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r207561515-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1230,9 @@
     <t>I had a quiet stay, which is my main priority when traveling. The hotel room was clean. It is located close to a mall, so there are restaurants and Starbucks close. For business travel, it is very adequate.More</t>
   </si>
   <si>
+    <t>Kim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r207560988-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1248,9 @@
     <t>We stayed there over the weekend for a soccer tournament. The staff was very friendly and helpful.  The breakfast was great!!! The rooms and the pool were clean and well kept. Great location. Close to everything.  The pond out back and the local wildlife was an added plus.  We would definitely stay there again.More</t>
   </si>
   <si>
+    <t>FLLovetotravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r207550097-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1266,9 @@
     <t>I stayed here for 3 nights. The hotel is clean, rooms are nice, staff is friendly. The breakfast was great every morning. The room was very clean when we arrived. The shower gets nice and hot and the water pressure is perfect. I have actually stayed at this hotel twice before and will keep coming back for my visits to Texas. It's also right down the road from a mall and movie theatre. More</t>
   </si>
   <si>
+    <t>Deana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r207427438-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1290,9 @@
     <t>I checked into this hotel very late (11PM)  with no reservation - traffic delayed me getting to my planned destination.  Not sure what was going on - people parked in car out front waiting for guests going in and out all night.  I called 911 and reported there was no emergency but clearly something odd going on. Police showed up and cruised the lot - the people parked in the lot left soon after the police drove through.  Room was not very clean.  I will not return to this hotel as I was up all night and did not feel safe.More</t>
   </si>
   <si>
+    <t>Joe B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r206549746-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1317,9 @@
     <t>I checked in for two day on a business trip. The elevator was out. It was out for the whole time I was there. I was surprised  they did not offer any type of discount or anything. The rooms were big and comfortable. I did not mind walking the stairs and I need to do more of it but the hotel should discounted the rooms.This is bad service  from the management.I will not stay here again...too many hotels in the area.More</t>
   </si>
   <si>
+    <t>TexasGal74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r204861392-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1341,9 @@
     <t>Stayed here once or twice very nice hotel staff is very friendly and accommodating.. BF liked that the ice machine was close to the room and not all the way downstairs sounds silly but the little things..More</t>
   </si>
   <si>
+    <t>Inundated</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r202767393-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1368,9 @@
     <t>A very nice well-appointed hotel. Big rooms, comfortable beds, HDTV with a whole bunch of HD channels. Nice shower, super quiet...what more can I say? Oh, the staff is top notch and friendly, and handles special requests or changes quickly and with a smile. I'm definitely coming back here if business or pleasure takes me back to the Metroplex again. This is starting to sound like a commercial, but it was a very real stay this week. I can't think of one thing that went wrong. Even the breakfast was great. More</t>
   </si>
   <si>
+    <t>unhappytraveler0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r201984561-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1389,9 @@
     <t>We picked this hotel out of the blue from a website and couldn't believe the hotel accommodations and the FANTASTIC staff.  We were greeted by Bryan M.  and made to feel a part of the Holiday Inn family every time we entered or left the hotel.  Any question that we asked was answered quickly and with accuracy.  The room was clean and quiet except for the wind that was blowing 40 mph the first night.  The maid service was excellent and accommodated our every need.  The lady who served breakfast and kept the dishes full did an amazing job.  It didn't matter if you were at breakfast at 6 am or 9:15 am, the breakfast hot, fresh and plentiful!  This hotel is located in an area that is convenient to the airport, Dallas, Fort Worth, Grapevine and lots of shopping.  We even made a trip to Forest Hill from this hotel for the best BBQ ever, Off the Bone.  Thank you to the Holiday Inn Staff!!More</t>
   </si>
   <si>
+    <t>Jimmy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r180452215-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1417,9 @@
   </si>
   <si>
     <t>This is a great hotel and I highly recommend this porperty. I am a current guest at this hotel and have stayed here on numerous occasions. The staff Melissa, Annie, Gene, Jordan, and Cindy are always friendly, smiling and make you feel welcomed!!!!!  Jimmy RaulersonMore</t>
+  </si>
+  <si>
+    <t>Scott H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r169409716-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1298,6 +1454,9 @@
 I Grand Prairie this...So I stay in lots of hotels and have found myself staying in Holiday Inn Express locations mostly because they are all newer properties AND they are SMOKE FREE.  I have stayed at the Lewisville HIE on several occasions but decided I wanted to write this review to help others decide if it is right for them.  This property is just a few hundred feet off of I35E (stemmons freeway) just beside the Vista Ridge Mall.  It is very easy to get to, has excellent parking that is well lit, and you can get right back on I35,121 or George Bush Freeway in just a couple of minutes since they are all right there together.I love the cleanliness of this property.  Smells very fresh. Rooms are spotless and I have never stayed in a room here that wasn't perfect.  Beds are very very comfortable. A/C - Heaters are quiet and very efficient.  Love the constant and free wifi.  Lots of properties seem to have wifi trouble but I have never experienced that at this property.The staff are so kind even remembering my name and looking for ways to help me and make my stay more convenient.  Love the staff and their desire to help when needed.Price is absolutely awesome.  On avg about $99 plus tax but for the convenience, quality of this property, awesome staff and great parking it is worth every penny.  I Grand Prairie this past weekend which is about 20+ miles from Lewisville but made the drive each way simply to enjoy the HIE in Lewisville.  I knew they would make my stay so enjoyable and comfortable.  I ended up forgetting my pillow when I checked out and they already had it secured with my name on it so they could ship it to me but fortunately I had a friend that was able to stop by and get it for me.If you want to feel safe, stay in a great location and have a very comfortable hotel visit while you are in the DFW area you will be very satisfied at the Lewisville Holiday Inn Express by Vista Ridge Mall.I hope this helps anyone looking for a great place to stay in making their decisionMore</t>
   </si>
   <si>
+    <t>christrl5509</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r166530875-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1484,9 @@
     <t>I stayed there recently with family and friends and cannot say enough about the staff and property! The hotel was nice, comfortable and very clean! All staff that we encountered were beyond friendly! Will stay there again!More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r164323691-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1511,9 @@
     <t>We stayed over the weekend at this Lewisville location. Hotel was very clean. Lobby, business center, and breakfast room were all very clean and kept up. Breakfast was hot and plenty. The woman taking care of it was helpful, nice, smiling, and kept everything stocked at all times. We were checked in by Samantha. She was great. Didn't take but a couple min.s. Recognized me a s a  Priority member. Fast elevators. Now the Room. Very clean. Fridg., microwave, flat screen, HBO, free wifi,  Bed was very comfortable, extra pillows, soft and medium. Great air conditioner. The one thing this hotel is missing is a hot tub by there pool. But they did have towels plenty by the pool. Add the great location and it makes this hotel a winner.More</t>
   </si>
   <si>
+    <t>UKtourist053</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r159184954-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1536,9 @@
   </si>
   <si>
     <t>Everything here was great. The rooms are spacious, clean and well appointed. The staff were friendly and helpful. The hot breakfast is varied and worth having.This hotel is great for a short stopover as you have a shopping mall, a cinema, bars and at least 6 good restaurants ( such as Red Lobster, BJ's, TGI Fridays etc ) within 5 minutes easy walking distance. This is the place to go where you don't need to drive to get anywhere if you don't want to.More</t>
+  </si>
+  <si>
+    <t>Kahuna51</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r158477519-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1406,6 +1574,9 @@
 The room was quiet and the stay was pleasant enough but would I stay here again? Doubtful. Not because there was any major issues, but there just are so many hotels within a half a mile that I think for the same money offer better value...I stayed for two nights in Lewisville recently and while another reviewer remarked the HIE Lewisville is fairly new it seemed a bit dated compared to other HIE's I've stayed at. The elevator and upstairs hallways smelled of smoke. I know its a non-smoking hotel but either someone had been smoking somewhere or the carpets hadn't been cleaned since the switch over. If it's always been non-smoking maybe the carpets just needed cleaning in general. The furnishings were ok in the room but as I said felt a bit dated.The breakfast was OK. They had space for two hot choices but instead of offering say eggs in one and sausage in the other they opted too put the same things in both spaces. The two days I stayed the offerings were different but always just one hot choice.The staff however is where this hotel shines. When I checked in I was greeted by Melissa, one of the friendliest most helpful hotel employees I've ever encountered. She recognized me as a priority points member and went out of her way to make sure I had everything I needed and my stay was pleasant. The room was quiet and the stay was pleasant enough but would I stay here again? Doubtful. Not because there was any major issues, but there just are so many hotels within a half a mile that I think for the same money offer better value all things considered.More</t>
   </si>
   <si>
+    <t>HGfromOmaha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r155945034-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1622,9 @@
     <t>We've stayed at this property twice during the past month.  It's fairly new and well-maintained and there are many restaurants nearby. The staff is courteous, and we thoroughly enjoyed our first stay there, which is why we returned to the property for a second visit.During that second visit, there was an incident involving my wife that could have been a serious personal safety issue.  I say "could have been" because, thankfully, it was not.  However, the potential was there, and it was serious enough for us to remove this property from our list of potential lodging in that area.We were on an extended road trip and we didn't discover until we returned home, a week later, that Gene Smith, the General Manager of the property had attempted to contact us prior to our checking out, but we had already gone.  Mr. Smith phoned our home number, which was listed in my Priority Club profile, and left a message, asking my wife to call him on his mobile at any time to discuss the incident.My wife spoke with Mr. Smth via telephone this morning.  We are impressed with the manner in which he handled the issue with her and with his commitment to effect changes to the new employee training process to prevent future occurrences.  Kudos to Mr. Smith for his willingness to get personally involved and to quickly defuse a potentially serious situation.We'll be back.More</t>
   </si>
   <si>
+    <t>manipandie2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r151412555-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1478,6 +1652,9 @@
     <t>Room was nice and spacious.  Request a Roll Away bed and it was promptly delivered to our room.  Breakfast was a disappointment but we were still able to find something to eat.  Great location and front desk staff was friendly.More</t>
   </si>
   <si>
+    <t>Travel_addict_1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r150707085-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1682,9 @@
     <t>I stayed at the Holiday Inn Express for 4 nights while out of town on business. I kept reading how awesome the beds were - yep, it's true! The best sleep I've gotten in a hotel in a long time.The breakfast was also very good - eggs, biscuits, cereal and cinnamon rolls.The rooms are not very updated as far as decor and color goes. There is absolutely no lighting in the rooms. And the air/heat is ran by the old type of window unit.However, you will sleep amazing on the beds.More</t>
   </si>
   <si>
+    <t>Andrettisky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r150456725-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1706,9 @@
     <t>I have stayed there on a couple of different occasions on business for a total of about a month.  Not my favorite HIE, however it is clean.  The folks at the front desk are friendly.  The breakfast area is a tad small for the number of rooms/guests.  The parking isn't good, and that is my "safety concern".   However, it is a great place to bed down just on the outskirts of Dallas...and there are lots of good restaurants within a few miles.More</t>
   </si>
   <si>
+    <t>gecko831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r150151319-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1550,6 +1733,9 @@
     <t>This hotel is at the intersection of 121 &amp; IH 35E - which is very convenient. Lots of restaurants very close by &amp; easy to access major thoroughfares to get around Dallas &amp; the surrounding areas. My room felt a little dated but still met my expectations &amp; it was  clean, which is really my main requirement at any hotel. For the price point this hotel is a good value &amp; I would stay here again. More</t>
   </si>
   <si>
+    <t>MStover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r146592695-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1574,6 +1760,9 @@
     <t>I have stayed here numerous times and continue to be satisfied.  15 minutes Northwest of DFW, away from the mess and a quiet location.  You are within walking distance to at least 10 different restaurants.The hotel, grounds, and rooms very clean and the rooms are well equipped.  Staff always friendly and the breakfast area is clean and the food while standard issue is a notch up here in quality and organization.If you're a priority club member, you will be recognized and taken care of. Definitely consider this hotel, you will not be disappointed and is a good value for the price paid.More</t>
   </si>
   <si>
+    <t>TexasLadies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r145837953-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1781,9 @@
     <t>Check-in was a breeze.  However, I had asked for a room with 2 queen beds and we were given a king room.  I immediately called the front desk and was given the option to either stay in the room where we were and they would comp it or move to the room with 2 queen beds.  We opted to stay where we were as the sofa rolled out to a queen bed.  I asked for additional pillows and they were brought up immediately by the Asst. General Manager.  We were trying to get settled, asked where the ice machine was and she even went to get the ice for us.  The room was huge, very comfortable bed and very clean.  I was traveling with my mother (85 yrs.) and would be out late attending a birthday party.  I asked for directions at the front desk before leaving and was told to call before leaving the party, and they would direct us back to the hotel.  The staff went out of their way to make sure we had a great stay.  Will definately stay again.More</t>
   </si>
   <si>
+    <t>n s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r145345578-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1802,9 @@
     <t>The check in was slow, but they gave us our waters and then checked in on us later to make sure everything was good and if we needed anything....the next morning though we stood at the punter for 5 min around 8:40 to check out no one was there.....the big complaint we had is they have benches right at the loading and unloading area for people to smoke and being highly allergic to smoke that s not a good thing for me so My throat started closing up and several hrs later still wheezing :(  ...suggestion they need to move the benches a little farther away from the loading area.....just saying :) Breakfast averageMore</t>
   </si>
   <si>
+    <t>Cgyguy30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r118951100-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1625,6 +1820,9 @@
     <t>Very nice hotel. Staff were great and breakfast was good. Rooms were nice and quiet and pool was perfect. Close to the mall, highways and restaurants.</t>
   </si>
   <si>
+    <t>SportsFanatic12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r116819876-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1640,6 +1838,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>porquepine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r116111738-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1658,6 +1859,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>mcasiano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r115755511-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1877,9 @@
     <t>This my third stay at this hotel, always a great stay. Excellent service, the check-in was smooth, after a heat experience on my AA flight to DFW, my room key was already prepared at 4pm. Everything was good at room, next morning the free breakfast at lobby was excellent, there's a Mexican lady that take care everything is hot and replenished. This hotel is close to a mall and a lot of places to eat like Red Lobster, IHOP, McDonald, Wendy. Also you get quick access to highways.</t>
   </si>
   <si>
+    <t>atravelingnana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r115286955-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1691,6 +1898,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>atremi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r98262584-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1919,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>goodwin1964</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r56199094-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1938,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>Travel_Around_Town</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r24064569-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1758,6 +1974,9 @@
 Easy on and easy off the freeway from this property...Having not stayed in Lewisville before I asked a business associate for a suggestion. They lead me to the Holiday Inn Express and it worked out great! Very close to the company I was visiting and close to several very good places to eat.Upon arriving mid-day the room was ready to go. The front desk clerk was happy to assist me and very helpful. I was given a goodie bag with a water and chips in it as I'm a Priority Club member. The room was big and had plenty of walking room in it. I hadn't been to a hotel with this much room to walk around in a long time. There was an in room refrigerator and microwave and all the typical hotel findings for a HI-Express.My only concern for the property is the entry driveway. It's a little uninviting and should be better landscaped. It seems like the property sits too far off the road and something could be built in front of it in the future. The drive way is long and had no bushes or landscaping to speak of. This should have been dressed up a little bit to make it feel nicer upon arrival.Around the corner seemed to be a mall or shopping center of sorts. There are several places to eat that appeared to be busy for a Wednesday night. Easy on and easy off the freeway from this property so it was easy to find and easy to get back on the freeway. (not often something you can claim in Texas if you're not familiar with the freeway/highway system.Also around the corner is another hotel of a mid-priced major chain, but my contact suggested I avoid that hotel as it is a little dated. So I was happy with this suggestion and would stay here again when I return to Lewisville.More</t>
   </si>
   <si>
+    <t>5GMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r19367789-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1776,6 +1995,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>HICAtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r17528928-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +2016,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>racheloroberts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r11997791-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2040,9 @@
     <t>I recently stayed at the HIE while in town for a wedding. I stay in hotels several times a year and have to say that if I could take this particular HIE with me on all my trips I would. Upon checking in we were greeted by a friendly staffer who offered us hot drinks to help warm us up from the cold, rainy weather. Our first set of keys didn't work on our doors so the woman at the desk not only made new keys for us but walked us down to our room just to make sure they worked. We need to have adjoining rooms to accommodate children and the staff made sure that we got them, I mention this because this has been a problem at other establishments. The rooms at the HIE are some of the largest I've stayed in. The bathroom was large with more than enough counter/mirror space for two people to get ready at once. The toilet/shower area had very high ceilings coupled with a larger than usual shower/tub that alleviated the normal feeling of showering right under/on top of the person in the room over/under you. The shower head was a rainshower with great pressure and plenty of hot water. The room had a mini-fridge and microwave and a desk to set up my laptop and get online with their free wi-fi. There was an over sized leather chair and ottoman in...I recently stayed at the HIE while in town for a wedding. I stay in hotels several times a year and have to say that if I could take this particular HIE with me on all my trips I would. Upon checking in we were greeted by a friendly staffer who offered us hot drinks to help warm us up from the cold, rainy weather. Our first set of keys didn't work on our doors so the woman at the desk not only made new keys for us but walked us down to our room just to make sure they worked. We need to have adjoining rooms to accommodate children and the staff made sure that we got them, I mention this because this has been a problem at other establishments. The rooms at the HIE are some of the largest I've stayed in. The bathroom was large with more than enough counter/mirror space for two people to get ready at once. The toilet/shower area had very high ceilings coupled with a larger than usual shower/tub that alleviated the normal feeling of showering right under/on top of the person in the room over/under you. The shower head was a rainshower with great pressure and plenty of hot water. The room had a mini-fridge and microwave and a desk to set up my laptop and get online with their free wi-fi. There was an over sized leather chair and ottoman in the corner for reading. The beds were so comfortable that I don't think I moved all night! Instead of the traditional tacky bedspread, they had a plain white cover and duvet. Pillows came in soft and firm, labeled on the cases, so there's no reason that anyone wouldn't be comfortable. The next morning when we went to the "continental" breakfast we were expecting the usual selection of cold cereal and donuts. This was my son's favorite part of our stay. They had a real breakfast. Eggs, sausage, waffles, french toast, cinnamon rolls along with the standard hot/cold cereal and pastries. The breakfast area was clean, well lit and there was a staffer present at all times to keep things stocked. I frequently travel to Dallas and will now be making the HIE in Lewisville my new hotel away from home. The location is ideal with plenty to do, see and eat within a 5 mile radius.More</t>
   </si>
   <si>
+    <t>IdahoPug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r10388247-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2064,9 @@
     <t>I was in Lewisville for business, and the Holiday Inn Express was the place my company chose for us to stay.  Good choice!  The front desk staff is friendly and helpful.  The rooms are huge.  There was a microwave and fridge in the room, as well as a coffeepot.  The breakfast was great, with plenty of choices including bacon and eggs.   There's a little "business center"  room with two computers for guests to use -- handy, because I didn't want to wrangle my laptop on this trip.  The friendly shuttle drivers took us to the business site and in the evenings ran us over to the Vista Ridge Mall and to various restaurants.  The shuttle only goes in a 5 mile radius, so you need to take a cab or airporter van if you have to get to DFW.  The only complaint I had was a little picky one... we didn't get fresh toiletries every day, though I'm sure if we'd made a fuss, we would have gotten them.More</t>
   </si>
   <si>
+    <t>travelNEwhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r8503851-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2085,9 @@
     <t>February 2007</t>
   </si>
   <si>
+    <t>GatoTaco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r8380654-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2106,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r4373026-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2142,9 @@
     <t>While it is not the Ritz, this is a great hotel for a cheap price.  We looked at several other options and decided on this one because of the good reviews.  Check-in/out was quick and simple.  The hotel staff were all  friendly.  The breakfast was good as well.  The rooms are HUGE compared to other places I have stayed in this price range.   We had a great stay and will go back if we are in Lewisville again!</t>
   </si>
   <si>
+    <t>travrept</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r3293098-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2158,9 @@
   </si>
   <si>
     <t>Stayed at the Baymont in Lewisville in February, 2005, and found it to be such a nice spacious room, very clean and comfortable.  The breakfast buffet was excellent also.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>lovebug76205</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d241648-r3233021-Holiday_Inn_Express_Hotel_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2467,43 +2710,47 @@
       <c r="A2" t="n">
         <v>42416</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2523,50 +2770,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42416</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>23382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2578,56 +2829,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42416</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2645,56 +2900,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42416</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2708,50 +2967,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42416</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124444</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2771,50 +3034,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42416</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2828,50 +3095,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42416</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2885,50 +3156,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42416</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2946,50 +3221,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42416</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3003,50 +3282,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42416</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3060,50 +3343,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42416</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>48343</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
-      </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3117,50 +3404,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42416</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3176,56 +3467,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42416</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3245,50 +3540,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42416</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>967</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3306,50 +3605,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42416</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3365,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42416</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155223</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3434,50 +3741,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42416</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3491,50 +3802,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42416</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3548,50 +3863,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42416</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3611,50 +3930,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42416</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3668,50 +3991,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42416</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3725,50 +4052,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42416</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3786,56 +4117,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42416</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>43833</v>
+      </c>
+      <c r="C24" t="s">
+        <v>222</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3853,50 +4188,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42416</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3914,56 +4253,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42416</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3981,56 +4324,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42416</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155231</v>
+      </c>
+      <c r="C27" t="s">
+        <v>249</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4046,56 +4393,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42416</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>44821</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4113,56 +4464,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42416</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>61813</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4174,56 +4529,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42416</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4239,56 +4598,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42416</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4304,56 +4667,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42416</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>42123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4371,56 +4738,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42416</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>34090</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4438,56 +4809,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42416</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155234</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4499,56 +4874,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="X34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42416</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4560,47 +4939,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42416</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -4629,50 +5012,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42416</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4688,56 +5075,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42416</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155237</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4753,56 +5144,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="X38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42416</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4820,50 +5215,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42416</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4879,56 +5278,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="X40" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Y40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42416</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>66408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4944,56 +5347,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42416</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C42" t="s">
+        <v>380</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5015,56 +5422,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42416</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5080,56 +5491,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42416</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>22105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5151,56 +5566,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X44" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42416</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>19006</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5222,47 +5641,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42416</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5289,56 +5712,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X46" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42416</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>46848</v>
+      </c>
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5360,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X47" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42416</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>794</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5431,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="X48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42416</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>126382</v>
+      </c>
+      <c r="C49" t="s">
+        <v>433</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="O49" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5502,56 +5937,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="X49" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42416</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>441</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5563,56 +6002,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="X50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42416</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155242</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5634,56 +6077,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="X51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="Y51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42416</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>60535</v>
+      </c>
+      <c r="C52" t="s">
+        <v>457</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5705,56 +6152,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="X52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42416</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C53" t="s">
+        <v>467</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="K53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5776,56 +6227,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42416</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5847,56 +6302,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="X54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="Y54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42416</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="O55" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5918,47 +6377,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="X55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>42416</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155244</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5985,56 +6448,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="X56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="Y56" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>42416</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155245</v>
+      </c>
+      <c r="C57" t="s">
+        <v>504</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="J57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="K57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="L57" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6056,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="X57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>42416</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>35802</v>
+      </c>
+      <c r="C58" t="s">
+        <v>514</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="K58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="L58" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6127,13 +6598,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="X58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59">
@@ -6146,37 +6617,37 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J59" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="K59" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="L59" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="O59" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6198,56 +6669,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="X59" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>42416</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>530</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="K60" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="L60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6269,56 +6744,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="X60" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="Y60" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>42416</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>540</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="J61" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="K61" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6340,56 +6819,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="X61" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="Y61" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>42416</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155248</v>
+      </c>
+      <c r="C62" t="s">
+        <v>550</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="J62" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="K62" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="L62" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6411,47 +6894,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="X62" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="Y62" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>42416</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>63156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>558</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="J63" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="K63" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="L63" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -6478,56 +6965,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="X63" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="Y63" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>42416</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>567</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="J64" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="K64" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="L64" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6549,56 +7040,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="X64" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="Y64" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>42416</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>576</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6620,56 +7115,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="X65" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="Y65" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>42416</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>48566</v>
+      </c>
+      <c r="C66" t="s">
+        <v>583</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="J66" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="K66" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="L66" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6691,47 +7190,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="X66" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="Y66" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>42416</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155251</v>
+      </c>
+      <c r="C67" t="s">
+        <v>590</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="J67" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="K67" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="L67" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -6760,50 +7263,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>42416</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155252</v>
+      </c>
+      <c r="C68" t="s">
+        <v>596</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="J68" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="K68" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="O68" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6823,50 +7330,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>42416</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>602</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="J69" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="K69" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="L69" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="O69" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6886,50 +7397,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>42416</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155254</v>
+      </c>
+      <c r="C70" t="s">
+        <v>609</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="J70" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="K70" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="O70" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6949,50 +7464,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>42416</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155255</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="J71" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="K71" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="L71" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="O71" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7012,50 +7531,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>42416</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>622</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="J72" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="K72" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="L72" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="O72" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7079,50 +7602,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>42416</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155257</v>
+      </c>
+      <c r="C73" t="s">
+        <v>629</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="J73" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="K73" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="L73" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7146,50 +7673,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>42416</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155258</v>
+      </c>
+      <c r="C74" t="s">
+        <v>636</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="J74" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="K74" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="L74" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7213,50 +7744,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>42416</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>87737</v>
+      </c>
+      <c r="C75" t="s">
+        <v>644</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="J75" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="L75" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="O75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -7280,50 +7815,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>42416</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>651</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="J76" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="L76" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7347,50 +7886,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>42416</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155260</v>
+      </c>
+      <c r="C77" t="s">
+        <v>658</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="J77" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="K77" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="L77" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="O77" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7414,50 +7957,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>42416</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>666</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="J78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="K78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="L78" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7481,50 +8028,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>42416</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>674</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="J79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="K79" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="L79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7548,50 +8099,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>42416</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>155263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>681</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="J80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="K80" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="L80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7615,50 +8170,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>42416</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>688</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="J81" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="K81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7680,41 +8239,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>42416</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>688</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
@@ -7741,41 +8304,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>42416</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>700</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="J83" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="K83" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="L83" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -7802,41 +8369,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>42416</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>706</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="J84" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="K84" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="L84" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -7855,41 +8426,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>42416</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>688</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="J85" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="K85" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="L85" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -7908,41 +8483,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>42416</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>688</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="J86" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="K86" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="L86" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -7961,7 +8540,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
